--- a/Recycling/Met_rec/metrec_Max_full.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0155595314593631</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.003259604567929152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002191389874578181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0008928368020520174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.003953730354335455</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9470.019881508941</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7391.43156055778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10160.0544852109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6082.809710043538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>52703.27741434308</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9761.98804622725</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7757.860877837226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10800.77799286838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6394.189657686058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>54619.78835695519</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.03519052604852248</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.007013887312657896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0004395874639509403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001758865147807173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.007604294879588654</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07429715214357212</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01419436924358864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0008226491924888875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.003264922685613244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0136704373438548</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1488162538163309</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.02746064630577747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001461801380829731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.005777124329337105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02330346459146538</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2864603657711521</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05141666020494856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002519893686435278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.009855417629229568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03812662261258154</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.5347071484671355</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09380667610800185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.004318225073368913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01637291524572091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.06048918270050343</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.9715291701163089</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1667892296602682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.007513953071480364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0266736234128934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0938188138095508</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.717540821702762</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2880414496224306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01342658035118805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.04276277267759572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1431326874125667</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.948524786852929</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4816926496827894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02449175033790525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0675300274463832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2157607378987036</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.90778168802586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.7791645832437762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.04488341589098738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.105024511696479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3222402341535852</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.917686675373739</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.219929242569558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.08148287863904449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1608043488881258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4773137350743221</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12.38949226000164</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.852178178543642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1452113061322932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2423072780456489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7010139071006398</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>18.83015875821421</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.733430657964331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2524533208470568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3592042013901459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.019836900042175</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>27.8446726495627</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.931112956651619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4263921303580723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5237499057467295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.468012749968676</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40.13155036856179</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.523086730839601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.6983551612385618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.7511568838244077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.088817049659352</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>56.46844574749385</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.598120376759252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.109299050272051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.06000950431658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.935892009522283</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>77.68511420605088</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.25662252513421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.712109886169574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.473025368089562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.07555131930592</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>104.6237561439199</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.61250236848646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.576197242601268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.019078729626876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.592791658292555</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138.0863922467352</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17.79602801795319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.794231971665988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.736440484031175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.600891441325968</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>178.7687664870504</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22.95788616991807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.491811289043488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.677360248077666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.25561837972763</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.035801654524377E-08</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.998924248029732E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.37634003029482E-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.071956551452926E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.545954883191526E-08</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>227.1906061014294</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.27649891009626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.84452308437444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.915659356745637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13.78083156665476</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>283.6354730569884</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.9682748875874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11.10195679653895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.557126058793918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18.50477649758001</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>348.1115297366652</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.29935006890867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15.61588814203598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.751615196749597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24.90284359711258</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>420.3518293622461</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>57.59817087801132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21.87148859034162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.70638994278821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33.64508189121374</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>499.8827297619569</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>71.26847586357782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>30.52085832340186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.70034534017188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>45.64818346592926</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>586.197552404701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>87.80222114175895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42.41822769824561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21.09862457166162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62.13316322961001</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>679.0766514042098</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>107.7922136264337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58.65633874918057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28.36744778414071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>84.6879641197033</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>779.0883751195672</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>131.9443356365234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80.60355260853646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>38.08910122824625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>115.3332374131491</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>888.2797754067926</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>161.0892061068381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>109.9410566132794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.97689048066861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>156.5900391953393</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1011.013984571305</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>196.1922241529847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>148.6975764854395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>67.88900350174765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>211.5457482675955</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.081528252943273E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.260166053374901E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.209462933665889E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.546378746245614E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.932229216384076E-06</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1154.829333978401</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>238.3591585005724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>199.2752219810792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>89.83861548475021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>283.9094686216484</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1331.115702557219</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>288.8373886877955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>264.4656855289944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>117.9999513220089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>378.0557237191962</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1555.35295752063</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>349.014278470748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>347.4584684406965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>153.7110673491118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>499.0585195645132</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1846.65601975606</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>420.4132282279654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>451.8406824601188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>198.4732050772981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>652.7148869797271</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2226.457469124598</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>504.6874265937431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>581.5867086677669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>253.9460898140401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>845.554783658055</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2716.330795410598</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>603.6107366152166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>741.0347173686636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>321.93812163448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1084.831569661791</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3335.168762761126</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>719.0655269391527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>934.847846071585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>404.3905038986372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1378.489372153328</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4096.095737928501</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>853.027230430608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1167.958043952433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>503.3543105751743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1735.104238150744</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5003.532723506676</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1007.544799109115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1445.489918782986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>620.9592332663078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2163.794352738839</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6050.74522226911</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1184.715706654153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1772.661611109793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>759.3725874524787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2674.094209849046</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.380397324783686E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.108414386803849E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.841352170781206E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.123852596737598E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.768150755858598E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7218.071421126803</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1386.65366023306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2154.659630164488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>920.7470723120094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3275.788100403081</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8471.973666144089</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1615.446235082363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2596.484711774181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1107.155785502239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3978.69643920285</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9765.139734377835</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1873.098853293742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3102.766158211381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1320.513130959852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4792.407919015612</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11038.00967219245</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2161.461107694958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3677.542877833785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1562.480586878764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5725.951842304188</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12222.14585391219</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2482.131398729394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4324.010742243114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1834.357069447353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6787.40749115317</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13245.64560752209</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2836.336462006641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5044.238053673888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2136.954850173532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7983.451511681116</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14040.30215581949</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3224.783348337408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5838.852774969662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2470.462566855811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9318.845811339223</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14549.601127121</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3647.483553170345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6706.708013979498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2834.298168623036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10795.87262848368</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14736.14598690712</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4103.552462723242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7644.536323977063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3226.956815545294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12413.73094021427</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14586.9775715887</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4590.991823393694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8646.608123350479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3645.861202822597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14167.91712886549</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0001864321744818052</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.266209570076175E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.831052176456604E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.973145194994666E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.590330184193999E-05</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14115.61702266793</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5106.468347216251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9704.414891950521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4087.224483502768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16049.62295095127</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13360.45854733952</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5645.107156861173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10806.403332547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4545.938586438048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18045.19329577504</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12380.10350177106</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6200.324032605775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11937.79207200298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5015.503154548333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20135.69593890555</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11246.95746236568</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6763.724431130049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13080.50698641217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5488.012166118521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22296.66438982046</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10040.55092912666</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7325.098847956478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14213.27374296836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5954.215910613277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>24498.08034645276</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8841.519241975557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7872.542356015783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15311.90547738155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6403.674823127473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26704.66233769903</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7726.335504299137</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8392.720507239799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16349.81867501747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6825.018464516535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28876.52049376332</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6762.349790026141</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8871.29390708326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17298.79986758463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7206.3169989687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30970.22154642308</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6002.894607375999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9293.500038721799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18130.02895237581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7535.563719396267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32940.28200583379</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5483.027054678755</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9644.874394275965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18815.34194362451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7801.255897534348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34741.07147155327</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0007237396159257157</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0001842489391771341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.418385070292919E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.63369787951263E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0002937889618595884</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5217.191034424472</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9912.075269450441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19328.68787774982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7993.048264501058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36329.06399010387</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5199.979391168851</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10083.75982980595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19647.70402663221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8102.440251908754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37665.32718440772</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5410.122743180603</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10151.44537235847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19755.30400036919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8123.44635743036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>38718.09189509996</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5816.434755143134</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10110.28122458483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19641.1494260028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8053.190697991563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39465.20620851796</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6383.626909424388</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9959.655291021656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19302.86283737819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7892.364091819123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39896.25454155938</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7076.229731252092</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9703.566056065998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>18746.84171903375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7645.486442446231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40014.12145357554</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7860.080073771227</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9350.706272140627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17988.55437079738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7320.92955847447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39835.80507020373</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8702.090889315461</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8914.227749813712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17052.23747295883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6930.675266405598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39392.33736283892</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9569.524460673276</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8411.185638570229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>15969.96991606447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6489.808900702088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>38727.74430497016</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10429.6449592213</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7861.692259501248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14780.16144741947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6015.775940494235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37897.06989082077</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.002289573233816822</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00054007078338386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.079096867462923E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0001794493438627235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0008039090035354429</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11249.97123404919</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7287.840967847959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13525.55926213656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5527.455841595505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36963.58268055898</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11998.96243037185</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6712.485526712758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12250.93122607027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5044.128044813502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35995.36878633501</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12646.97886546631</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6157.976294051415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11000.62210361414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4584.417417866808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35061.57928136519</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13167.51870049938</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5644.958713041165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9816.19293963917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4165.308089167137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34228.63419583423</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13538.77960330331</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5191.331539614916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8734.34162392896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3801.305612997648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33556.68555727871</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13745.48576548796</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4811.44326046371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7785.266978210544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3503.809272953507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33096.60973165379</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13780.75088915542</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4515.578264981456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6991.585561477114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3280.732078413467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32887.74049482839</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13647.61304193131</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4309.753405905337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6367.847940256273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3136.379237587546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32956.47754523091</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13359.82431011268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4195.814699913871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5920.638172084708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3071.57019045915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33315.82028354633</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12941.5337336512</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4171.796670503224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5649.184519892915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3083.967648214567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33965.79284546911</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.006301465752733173</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00139615280987779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001000582078702494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.000420726995920251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001886062051509322</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12425.685436238</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4232.485872231021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5546.366798808996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3168.561574347626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34894.65155776849</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11851.24596873893</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4370.117155912376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5599.979921559829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3318.247795334829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>36080.706921558</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11259.68763421617</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4575.126886750473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5794.105593452858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3524.4401504141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>37494.55367062584</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10691.35404151572</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4836.891462180333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6110.454195981883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3777.661243730033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39101.48754924336</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10182.31891487231</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5144.391113476755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6529.564234525507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4068.068677610539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40863.89689539637</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9762.12776086305</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5486.756215425044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7031.782890475275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4385.889104790827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42743.44832270056</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9452.508450110245</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5853.673525730232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7597.992173093181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4721.748971356139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>44702.93334904193</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9266.905746843528</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6235.649695596241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8210.084076987343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5066.905597553801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46707.69782035528</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9210.615417212677</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6624.146025543035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8851.218820208585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5413.392875046461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48726.62942796843</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9281.334603377738</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7011.609671639607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9505.918606374204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5754.101029045235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50732.72330591093</v>
       </c>
     </row>
   </sheetData>
